--- a/Code/Results/Cases/Case_3_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.206970748535952</v>
+        <v>0.620801766869107</v>
       </c>
       <c r="C2">
-        <v>0.1274567386109506</v>
+        <v>0.2311657902019135</v>
       </c>
       <c r="D2">
-        <v>0.06626278877872949</v>
+        <v>0.047776838161397</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6475714841574955</v>
+        <v>1.01695826612783</v>
       </c>
       <c r="G2">
-        <v>0.000815075271251302</v>
+        <v>0.002467076477580325</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9031517763263253</v>
+        <v>0.2935921447024441</v>
       </c>
       <c r="L2">
-        <v>0.3973285553216215</v>
+        <v>0.3037098705232211</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.033636367663092</v>
+        <v>3.642715521312738</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.048485032679338</v>
+        <v>0.5768644779398358</v>
       </c>
       <c r="C3">
-        <v>0.1313216994761603</v>
+        <v>0.2327238799209788</v>
       </c>
       <c r="D3">
-        <v>0.06168781435032855</v>
+        <v>0.04606343661111367</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6204707689912752</v>
+        <v>1.016913411053267</v>
       </c>
       <c r="G3">
-        <v>0.0008191232271368655</v>
+        <v>0.002469692833632317</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7880269979565355</v>
+        <v>0.2586924008109008</v>
       </c>
       <c r="L3">
-        <v>0.350614490667212</v>
+        <v>0.2926612632286236</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.994536043606303</v>
+        <v>3.657195331644687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9516165235810661</v>
+        <v>0.5500901395506048</v>
       </c>
       <c r="C4">
-        <v>0.1337883579207677</v>
+        <v>0.2337315644787061</v>
       </c>
       <c r="D4">
-        <v>0.05886533707854369</v>
+        <v>0.04499954316590049</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6050491017619848</v>
+        <v>1.017462858044148</v>
       </c>
       <c r="G4">
-        <v>0.000821690263518492</v>
+        <v>0.002471385406385599</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7174110449640665</v>
+        <v>0.2372526210518231</v>
       </c>
       <c r="L4">
-        <v>0.3223629677615349</v>
+        <v>0.2860523327749576</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.974539704479895</v>
+        <v>3.668019184729502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9122345288454028</v>
+        <v>0.5392311026547816</v>
       </c>
       <c r="C5">
-        <v>0.1348169059468471</v>
+        <v>0.2341550536282604</v>
       </c>
       <c r="D5">
-        <v>0.05771157775131996</v>
+        <v>0.04456303895602787</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.599055582097705</v>
+        <v>1.017831844069995</v>
       </c>
       <c r="G5">
-        <v>0.0008227572481497638</v>
+        <v>0.002472096863621177</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6886413107923488</v>
+        <v>0.228513371881462</v>
       </c>
       <c r="L5">
-        <v>0.3109488654088324</v>
+        <v>0.2834031636323147</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.967353553068506</v>
+        <v>3.672916010886524</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9057002565756136</v>
+        <v>0.5374311093463575</v>
       </c>
       <c r="C6">
-        <v>0.1349891022103051</v>
+        <v>0.2342261504188592</v>
       </c>
       <c r="D6">
-        <v>0.05751977528062469</v>
+        <v>0.04449037972236169</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5980774983949289</v>
+        <v>1.01790187632772</v>
       </c>
       <c r="G6">
-        <v>0.0008229356930827559</v>
+        <v>0.002472216314087658</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6838642213287613</v>
+        <v>0.2270620967027526</v>
       </c>
       <c r="L6">
-        <v>0.3090592427879528</v>
+        <v>0.2829659309021224</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.966217125780076</v>
+        <v>3.673758476585249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9510850525740011</v>
+        <v>0.5499434805666397</v>
       </c>
       <c r="C7">
-        <v>0.133802134881579</v>
+        <v>0.2337372237458748</v>
       </c>
       <c r="D7">
-        <v>0.05884979181438155</v>
+        <v>0.0449936682689227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6049671128831022</v>
+        <v>1.017467246898036</v>
       </c>
       <c r="G7">
-        <v>0.0008217045681547241</v>
+        <v>0.002471394913372837</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7170230326906619</v>
+        <v>0.2371347694570574</v>
       </c>
       <c r="L7">
-        <v>0.3222086464200657</v>
+        <v>0.2860164268643786</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.974438951651194</v>
+        <v>3.668083257308524</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.152221536092441</v>
+        <v>0.6056103281779031</v>
       </c>
       <c r="C8">
-        <v>0.1287698601787959</v>
+        <v>0.231692445672131</v>
       </c>
       <c r="D8">
-        <v>0.06468799651929658</v>
+        <v>0.0471885315891214</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6379647774242798</v>
+        <v>1.01682303953708</v>
       </c>
       <c r="G8">
-        <v>0.0008164543122960627</v>
+        <v>0.002467960762054227</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8634351017578297</v>
+        <v>0.2815612955741926</v>
       </c>
       <c r="L8">
-        <v>0.3811260086498862</v>
+        <v>0.2998640110584887</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.019293457662371</v>
+        <v>3.647306861604648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.551067567757542</v>
+        <v>0.7163660987903029</v>
       </c>
       <c r="C9">
-        <v>0.1196514049837809</v>
+        <v>0.228086351999286</v>
       </c>
       <c r="D9">
-        <v>0.07604059427257681</v>
+        <v>0.05139774925337548</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7130779166164629</v>
+        <v>1.020139572358545</v>
       </c>
       <c r="G9">
-        <v>0.0008067874758865023</v>
+        <v>0.002461906771343956</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.151658685917823</v>
+        <v>0.3685772851766558</v>
       </c>
       <c r="L9">
-        <v>0.5005564410805761</v>
+        <v>0.3284078317835224</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.14129251135941</v>
+        <v>3.621910706266078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.848167283573105</v>
+        <v>0.7986913851204349</v>
       </c>
       <c r="C10">
-        <v>0.1134199887770677</v>
+        <v>0.2256815797370884</v>
       </c>
       <c r="D10">
-        <v>0.08433923723323744</v>
+        <v>0.05443158504165524</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7757014822377073</v>
+        <v>1.025372541160621</v>
       </c>
       <c r="G10">
-        <v>0.000800041494534632</v>
+        <v>0.002457869540390498</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.364924563921306</v>
+        <v>0.4324299632121154</v>
       </c>
       <c r="L10">
-        <v>0.5913834047845512</v>
+        <v>0.3502289617875789</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.254953804766956</v>
+        <v>3.61262188013302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.984539753938577</v>
+        <v>0.8363469254496749</v>
       </c>
       <c r="C11">
-        <v>0.1106893660621679</v>
+        <v>0.2246403900176759</v>
       </c>
       <c r="D11">
-        <v>0.0881094101482347</v>
+        <v>0.05579885864963785</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.806067127290774</v>
+        <v>1.028361401267958</v>
       </c>
       <c r="G11">
-        <v>0.0007970435288580102</v>
+        <v>0.002456121185681726</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.462473170250746</v>
+        <v>0.4614586389926103</v>
       </c>
       <c r="L11">
-        <v>0.6335417731120003</v>
+        <v>0.3603414036310966</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.312663030641232</v>
+        <v>3.610434050262654</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.036385220530462</v>
+        <v>0.8506351574025643</v>
       </c>
       <c r="C12">
-        <v>0.1096705659852759</v>
+        <v>0.2242536822173431</v>
       </c>
       <c r="D12">
-        <v>0.0895367196560457</v>
+        <v>0.05631474496534139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8178592928032913</v>
+        <v>1.029580732390272</v>
       </c>
       <c r="G12">
-        <v>0.0007959179002162929</v>
+        <v>0.002455471746027459</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.499506671640376</v>
+        <v>0.4724480597487855</v>
       </c>
       <c r="L12">
-        <v>0.6496420931037648</v>
+        <v>0.364197467199574</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.335450030381395</v>
+        <v>3.609898802144954</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.025209810341835</v>
+        <v>0.8475566559087611</v>
       </c>
       <c r="C13">
-        <v>0.1098893012018856</v>
+        <v>0.2243366303438066</v>
       </c>
       <c r="D13">
-        <v>0.08922933397711574</v>
+        <v>0.05620372320677802</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8153062020356288</v>
+        <v>1.029314234851796</v>
       </c>
       <c r="G13">
-        <v>0.0007961599050327595</v>
+        <v>0.002455611053970663</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.491526374776385</v>
+        <v>0.4700814373647688</v>
       </c>
       <c r="L13">
-        <v>0.6461683080959659</v>
+        <v>0.3633658078662734</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.33049973483466</v>
+        <v>3.610001032244526</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.988800847497657</v>
+        <v>0.8375218513941149</v>
       </c>
       <c r="C14">
-        <v>0.1106052420217196</v>
+        <v>0.2246084237575232</v>
       </c>
       <c r="D14">
-        <v>0.08822684122056756</v>
+        <v>0.05584133855808915</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8070312568305695</v>
+        <v>1.028459962259532</v>
       </c>
       <c r="G14">
-        <v>0.0007969507328499534</v>
+        <v>0.002456067503205372</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.465517951382935</v>
+        <v>0.462362810341034</v>
       </c>
       <c r="L14">
-        <v>0.6348635434725765</v>
+        <v>0.3606581093463888</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.314518594585593</v>
+        <v>3.610384136967298</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.96652678505032</v>
+        <v>0.8313789882302558</v>
       </c>
       <c r="C15">
-        <v>0.1110457675898822</v>
+        <v>0.2247758901485426</v>
       </c>
       <c r="D15">
-        <v>0.08761274728333746</v>
+        <v>0.05561912315783246</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8020015389896571</v>
+        <v>1.027948093606255</v>
       </c>
       <c r="G15">
-        <v>0.0007974363757479254</v>
+        <v>0.002456348733979873</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.44959981546657</v>
+        <v>0.4576345091342944</v>
       </c>
       <c r="L15">
-        <v>0.6279572054453268</v>
+        <v>0.3590030421921995</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.304853468464813</v>
+        <v>3.610656993990517</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.839281980573105</v>
+        <v>0.7962345850429529</v>
       </c>
       <c r="C16">
-        <v>0.1136005576138999</v>
+        <v>0.2257506839437191</v>
       </c>
       <c r="D16">
-        <v>0.084092776486969</v>
+        <v>0.05434197010532671</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7737567580795854</v>
+        <v>1.025189456719474</v>
       </c>
       <c r="G16">
-        <v>0.0008002387976433903</v>
+        <v>0.002457985569261346</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.358561706883705</v>
+        <v>0.4305324624536127</v>
       </c>
       <c r="L16">
-        <v>0.5886464274861538</v>
+        <v>0.3495718280883153</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.251309086800944</v>
+        <v>3.612805882290274</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.761553697289401</v>
+        <v>0.7747267766842185</v>
       </c>
       <c r="C17">
-        <v>0.1151946755442239</v>
+        <v>0.2263621870308477</v>
       </c>
       <c r="D17">
-        <v>0.08193235708048974</v>
+        <v>0.05355517321023484</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7569265278791022</v>
+        <v>1.023652961369535</v>
       </c>
       <c r="G17">
-        <v>0.0008019757521088678</v>
+        <v>0.002459012263600355</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.302861169711264</v>
+        <v>0.4139012183718478</v>
       </c>
       <c r="L17">
-        <v>0.5647561654631801</v>
+        <v>0.3438336753974625</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.220047588900684</v>
+        <v>3.614646214842566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.7169594624024</v>
+        <v>0.7623754208694606</v>
       </c>
       <c r="C18">
-        <v>0.1161213497614551</v>
+        <v>0.2267188738552282</v>
       </c>
       <c r="D18">
-        <v>0.08068925606156796</v>
+        <v>0.05310142198424472</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7474214847608209</v>
+        <v>1.022826469307134</v>
       </c>
       <c r="G18">
-        <v>0.0008029815026611391</v>
+        <v>0.002459611096268315</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.270872735631286</v>
+        <v>0.4043336799740587</v>
       </c>
       <c r="L18">
-        <v>0.5510932910785442</v>
+        <v>0.340550741444801</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.20262742537335</v>
+        <v>3.615896510915292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.701879192893671</v>
+        <v>0.7581968096094158</v>
       </c>
       <c r="C19">
-        <v>0.116436777769044</v>
+        <v>0.2268404954175995</v>
       </c>
       <c r="D19">
-        <v>0.0802682703974682</v>
+        <v>0.0529475831713242</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7442326586184436</v>
+        <v>1.022556466613381</v>
       </c>
       <c r="G19">
-        <v>0.0008033231994295909</v>
+        <v>0.002459815279021504</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.260049918316128</v>
+        <v>0.4010940010732611</v>
       </c>
       <c r="L19">
-        <v>0.5464802649969869</v>
+        <v>0.3394422029416404</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.196823485127368</v>
+        <v>3.616352772417542</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.769816107964402</v>
+        <v>0.7770143198191022</v>
       </c>
       <c r="C20">
-        <v>0.1150239649737301</v>
+        <v>0.2262965776077515</v>
       </c>
       <c r="D20">
-        <v>0.08216238526829756</v>
+        <v>0.05363905412877301</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.758699832364286</v>
+        <v>1.023810597537377</v>
       </c>
       <c r="G20">
-        <v>0.0008017901607125414</v>
+        <v>0.002458902111107553</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.308785390121585</v>
+        <v>0.4156718208014638</v>
       </c>
       <c r="L20">
-        <v>0.5672911292666498</v>
+        <v>0.3444427006171935</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.22331691320295</v>
+        <v>3.614430457645511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.999489261568158</v>
+        <v>0.8404685375355712</v>
       </c>
       <c r="C21">
-        <v>0.110394537402744</v>
+        <v>0.2245283861858418</v>
       </c>
       <c r="D21">
-        <v>0.08852130496240562</v>
+        <v>0.05594783067847686</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8094536528039242</v>
+        <v>1.028708507441138</v>
       </c>
       <c r="G21">
-        <v>0.0007967181905905323</v>
+        <v>0.00245593309080462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.473154560721412</v>
+        <v>0.4646300464455635</v>
       </c>
       <c r="L21">
-        <v>0.6381802146915874</v>
+        <v>0.36145270162028</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.319186713271336</v>
+        <v>3.610263649778688</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.150798961286966</v>
+        <v>0.8821076728160051</v>
       </c>
       <c r="C22">
-        <v>0.1074578315578325</v>
+        <v>0.2234168758702602</v>
       </c>
       <c r="D22">
-        <v>0.09267522775371617</v>
+        <v>0.05744583523625835</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.844346200688193</v>
+        <v>1.03241969205483</v>
       </c>
       <c r="G22">
-        <v>0.0007934592490229774</v>
+        <v>0.002454066222270949</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.581136047830057</v>
+        <v>0.4966087322476653</v>
       </c>
       <c r="L22">
-        <v>0.6853100176222711</v>
+        <v>0.3727253415656691</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.387322468276267</v>
+        <v>3.609249700567887</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.069921798279722</v>
+        <v>0.8598689070355476</v>
       </c>
       <c r="C23">
-        <v>0.1090169817058033</v>
+        <v>0.2240060799957035</v>
       </c>
       <c r="D23">
-        <v>0.09045826576449656</v>
+        <v>0.05664732892640245</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8255576641390974</v>
+        <v>1.030392276337139</v>
       </c>
       <c r="G23">
-        <v>0.0007951936847053536</v>
+        <v>0.002455055893886595</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.523447263083767</v>
+        <v>0.4795429448531081</v>
       </c>
       <c r="L23">
-        <v>0.6600775349988481</v>
+        <v>0.3666946924907535</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.35043110872985</v>
+        <v>3.609634392177753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.766080385218629</v>
+        <v>0.7759800786303401</v>
       </c>
       <c r="C24">
-        <v>0.115101111488249</v>
+        <v>0.2263262236591892</v>
       </c>
       <c r="D24">
-        <v>0.08205839281119864</v>
+        <v>0.05360113595992289</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7578975908948706</v>
+        <v>1.023739153112885</v>
       </c>
       <c r="G24">
-        <v>0.0008018740442649877</v>
+        <v>0.002458951884315774</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.306106943762444</v>
+        <v>0.4148713501430734</v>
       </c>
       <c r="L24">
-        <v>0.566144849123603</v>
+        <v>0.3441673104572942</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.221837136067535</v>
+        <v>3.614527402589601</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.442560090358967</v>
+        <v>0.6862350576245433</v>
       </c>
       <c r="C25">
-        <v>0.1220368526722986</v>
+        <v>0.229018831036738</v>
       </c>
       <c r="D25">
-        <v>0.07297808351857782</v>
+        <v>0.05026928983853907</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6915352504322314</v>
+        <v>1.018751609995078</v>
       </c>
       <c r="G25">
-        <v>0.0008093379934892564</v>
+        <v>0.002463472127275014</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.073485531204568</v>
+        <v>0.3450498170722369</v>
       </c>
       <c r="L25">
-        <v>0.4677603419503384</v>
+        <v>0.3205369474227524</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.104319416317878</v>
+        <v>3.627136639535479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.620801766869107</v>
+        <v>1.206970748535866</v>
       </c>
       <c r="C2">
-        <v>0.2311657902019135</v>
+        <v>0.1274567386105225</v>
       </c>
       <c r="D2">
-        <v>0.047776838161397</v>
+        <v>0.06626278877857317</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.01695826612783</v>
+        <v>0.6475714841574884</v>
       </c>
       <c r="G2">
-        <v>0.002467076477580325</v>
+        <v>0.0008150752712625109</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2935921447024441</v>
+        <v>0.9031517763263821</v>
       </c>
       <c r="L2">
-        <v>0.3037098705232211</v>
+        <v>0.3973285553216641</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.642715521312738</v>
+        <v>2.033636367663149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5768644779398358</v>
+        <v>1.048485032679309</v>
       </c>
       <c r="C3">
-        <v>0.2327238799209788</v>
+        <v>0.1313216994758211</v>
       </c>
       <c r="D3">
-        <v>0.04606343661111367</v>
+        <v>0.06168781435032855</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.016913411053267</v>
+        <v>0.6204707689912752</v>
       </c>
       <c r="G3">
-        <v>0.002469692833632317</v>
+        <v>0.000819123227158252</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2586924008109008</v>
+        <v>0.7880269979564787</v>
       </c>
       <c r="L3">
-        <v>0.2926612632286236</v>
+        <v>0.3506144906672262</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.657195331644687</v>
+        <v>1.994536043606246</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5500901395506048</v>
+        <v>0.9516165235812934</v>
       </c>
       <c r="C4">
-        <v>0.2337315644787061</v>
+        <v>0.1337883579211638</v>
       </c>
       <c r="D4">
-        <v>0.04499954316590049</v>
+        <v>0.05886533707874264</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.017462858044148</v>
+        <v>0.6050491017619635</v>
       </c>
       <c r="G4">
-        <v>0.002471385406385599</v>
+        <v>0.0008216902634596495</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2372526210518231</v>
+        <v>0.7174110449641091</v>
       </c>
       <c r="L4">
-        <v>0.2860523327749576</v>
+        <v>0.3223629677615918</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.668019184729502</v>
+        <v>1.974539704479923</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5392311026547816</v>
+        <v>0.9122345288453744</v>
       </c>
       <c r="C5">
-        <v>0.2341550536282604</v>
+        <v>0.1348169059470035</v>
       </c>
       <c r="D5">
-        <v>0.04456303895602787</v>
+        <v>0.05771157775119917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.017831844069995</v>
+        <v>0.599055582097705</v>
       </c>
       <c r="G5">
-        <v>0.002472096863621177</v>
+        <v>0.0008227572482085144</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.228513371881462</v>
+        <v>0.6886413107924056</v>
       </c>
       <c r="L5">
-        <v>0.2834031636323147</v>
+        <v>0.3109488654087897</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.672916010886524</v>
+        <v>1.967353553068534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5374311093463575</v>
+        <v>0.9057002565756704</v>
       </c>
       <c r="C6">
-        <v>0.2342261504188592</v>
+        <v>0.1349891022102856</v>
       </c>
       <c r="D6">
-        <v>0.04449037972236169</v>
+        <v>0.05751977528080943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.01790187632772</v>
+        <v>0.5980774983949217</v>
       </c>
       <c r="G6">
-        <v>0.002472216314087658</v>
+        <v>0.0008229356930809506</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2270620967027526</v>
+        <v>0.6838642213287756</v>
       </c>
       <c r="L6">
-        <v>0.2829659309021224</v>
+        <v>0.3090592427879528</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.673758476585249</v>
+        <v>1.966217125780105</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5499434805666397</v>
+        <v>0.9510850525740295</v>
       </c>
       <c r="C7">
-        <v>0.2337372237458748</v>
+        <v>0.1338021348811012</v>
       </c>
       <c r="D7">
-        <v>0.0449936682689227</v>
+        <v>0.05884979181431049</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.017467246898036</v>
+        <v>0.6049671128831093</v>
       </c>
       <c r="G7">
-        <v>0.002471394913372837</v>
+        <v>0.0008217045680735258</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2371347694570574</v>
+        <v>0.7170230326906477</v>
       </c>
       <c r="L7">
-        <v>0.2860164268643786</v>
+        <v>0.322208646420151</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.668083257308524</v>
+        <v>1.974438951651166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6056103281779031</v>
+        <v>1.152221536092412</v>
       </c>
       <c r="C8">
-        <v>0.231692445672131</v>
+        <v>0.1287698601788705</v>
       </c>
       <c r="D8">
-        <v>0.0471885315891214</v>
+        <v>0.06468799651938895</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.01682303953708</v>
+        <v>0.6379647774243011</v>
       </c>
       <c r="G8">
-        <v>0.002467960762054227</v>
+        <v>0.0008164543122935123</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2815612955741926</v>
+        <v>0.8634351017578581</v>
       </c>
       <c r="L8">
-        <v>0.2998640110584887</v>
+        <v>0.3811260086499715</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.647306861604648</v>
+        <v>2.0192934576624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7163660987903029</v>
+        <v>1.551067567757428</v>
       </c>
       <c r="C9">
-        <v>0.228086351999286</v>
+        <v>0.1196514049839177</v>
       </c>
       <c r="D9">
-        <v>0.05139774925337548</v>
+        <v>0.07604059427251997</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.020139572358545</v>
+        <v>0.7130779166164771</v>
       </c>
       <c r="G9">
-        <v>0.002461906771343956</v>
+        <v>0.0008067874759092875</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3685772851766558</v>
+        <v>1.151658685917766</v>
       </c>
       <c r="L9">
-        <v>0.3284078317835224</v>
+        <v>0.5005564410805903</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.621910706266078</v>
+        <v>2.141292511359381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7986913851204349</v>
+        <v>1.848167283573105</v>
       </c>
       <c r="C10">
-        <v>0.2256815797370884</v>
+        <v>0.1134199887771921</v>
       </c>
       <c r="D10">
-        <v>0.05443158504165524</v>
+        <v>0.08433923723323744</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.025372541160621</v>
+        <v>0.7757014822376931</v>
       </c>
       <c r="G10">
-        <v>0.002457869540390498</v>
+        <v>0.0008000414945612575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4324299632121154</v>
+        <v>1.364924563921306</v>
       </c>
       <c r="L10">
-        <v>0.3502289617875789</v>
+        <v>0.5913834047846365</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.61262188013302</v>
+        <v>2.254953804766927</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8363469254496749</v>
+        <v>1.984539753938691</v>
       </c>
       <c r="C11">
-        <v>0.2246403900176759</v>
+        <v>0.1106893660626334</v>
       </c>
       <c r="D11">
-        <v>0.05579885864963785</v>
+        <v>0.08810941014829154</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.028361401267958</v>
+        <v>0.806067127290774</v>
       </c>
       <c r="G11">
-        <v>0.002456121185681726</v>
+        <v>0.0007970435288576105</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4614586389926103</v>
+        <v>1.462473170250775</v>
       </c>
       <c r="L11">
-        <v>0.3603414036310966</v>
+        <v>0.633541773112043</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.610434050262654</v>
+        <v>2.312663030641261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8506351574025643</v>
+        <v>2.036385220530462</v>
       </c>
       <c r="C12">
-        <v>0.2242536822173431</v>
+        <v>0.1096705659853967</v>
       </c>
       <c r="D12">
-        <v>0.05631474496534139</v>
+        <v>0.08953671965615229</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.029580732390272</v>
+        <v>0.8178592928032913</v>
       </c>
       <c r="G12">
-        <v>0.002455471746027459</v>
+        <v>0.0007959179002159398</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4724480597487855</v>
+        <v>1.499506671640319</v>
       </c>
       <c r="L12">
-        <v>0.364197467199574</v>
+        <v>0.6496420931038074</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.609898802144954</v>
+        <v>2.335450030381423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8475566559087611</v>
+        <v>2.025209810341721</v>
       </c>
       <c r="C13">
-        <v>0.2243366303438066</v>
+        <v>0.1098893012018909</v>
       </c>
       <c r="D13">
-        <v>0.05620372320677802</v>
+        <v>0.08922933397728627</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.029314234851796</v>
+        <v>0.8153062020356145</v>
       </c>
       <c r="G13">
-        <v>0.002455611053970663</v>
+        <v>0.0007961599050323538</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4700814373647688</v>
+        <v>1.491526374776299</v>
       </c>
       <c r="L13">
-        <v>0.3633658078662734</v>
+        <v>0.6461683080958665</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.610001032244526</v>
+        <v>2.33049973483466</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8375218513941149</v>
+        <v>1.9888008474976</v>
       </c>
       <c r="C14">
-        <v>0.2246084237575232</v>
+        <v>0.110605242021597</v>
       </c>
       <c r="D14">
-        <v>0.05584133855808915</v>
+        <v>0.0882268412206173</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.028459962259532</v>
+        <v>0.8070312568305695</v>
       </c>
       <c r="G14">
-        <v>0.002456067503205372</v>
+        <v>0.0007969507328769589</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.462362810341034</v>
+        <v>1.465517951382935</v>
       </c>
       <c r="L14">
-        <v>0.3606581093463888</v>
+        <v>0.6348635434726333</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.610384136967298</v>
+        <v>2.314518594585593</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8313789882302558</v>
+        <v>1.966526785050235</v>
       </c>
       <c r="C15">
-        <v>0.2247758901485426</v>
+        <v>0.1110457675898822</v>
       </c>
       <c r="D15">
-        <v>0.05561912315783246</v>
+        <v>0.08761274728333035</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.027948093606255</v>
+        <v>0.8020015389896855</v>
       </c>
       <c r="G15">
-        <v>0.002456348733979873</v>
+        <v>0.0007974363757771185</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4576345091342944</v>
+        <v>1.449599815466627</v>
       </c>
       <c r="L15">
-        <v>0.3590030421921995</v>
+        <v>0.6279572054453553</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.610656993990517</v>
+        <v>2.304853468464813</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7962345850429529</v>
+        <v>1.83928198057319</v>
       </c>
       <c r="C16">
-        <v>0.2257506839437191</v>
+        <v>0.1136005576142356</v>
       </c>
       <c r="D16">
-        <v>0.05434197010532671</v>
+        <v>0.08409277648702584</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.025189456719474</v>
+        <v>0.7737567580795854</v>
       </c>
       <c r="G16">
-        <v>0.002457985569261346</v>
+        <v>0.0008002387976737302</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4305324624536127</v>
+        <v>1.358561706883734</v>
       </c>
       <c r="L16">
-        <v>0.3495718280883153</v>
+        <v>0.588646427486097</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.612805882290274</v>
+        <v>2.251309086800973</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7747267766842185</v>
+        <v>1.761553697289514</v>
       </c>
       <c r="C17">
-        <v>0.2263621870308477</v>
+        <v>0.1151946755444548</v>
       </c>
       <c r="D17">
-        <v>0.05355517321023484</v>
+        <v>0.08193235708054658</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.023652961369535</v>
+        <v>0.7569265278791022</v>
       </c>
       <c r="G17">
-        <v>0.002459012263600355</v>
+        <v>0.0008019757521634019</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4139012183718478</v>
+        <v>1.302861169711292</v>
       </c>
       <c r="L17">
-        <v>0.3438336753974625</v>
+        <v>0.5647561654632511</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.614646214842566</v>
+        <v>2.220047588900712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7623754208694606</v>
+        <v>1.716959462402258</v>
       </c>
       <c r="C18">
-        <v>0.2267188738552282</v>
+        <v>0.1161213497613396</v>
       </c>
       <c r="D18">
-        <v>0.05310142198424472</v>
+        <v>0.08068925606151822</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.022826469307134</v>
+        <v>0.7474214847607925</v>
       </c>
       <c r="G18">
-        <v>0.002459611096268315</v>
+        <v>0.0008029815026864839</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4043336799740587</v>
+        <v>1.270872735631258</v>
       </c>
       <c r="L18">
-        <v>0.340550741444801</v>
+        <v>0.55109329107853</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.615896510915292</v>
+        <v>2.20262742537335</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7581968096094158</v>
+        <v>1.701879192894012</v>
       </c>
       <c r="C19">
-        <v>0.2268404954175995</v>
+        <v>0.1164367777695077</v>
       </c>
       <c r="D19">
-        <v>0.0529475831713242</v>
+        <v>0.08026827039758899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.022556466613381</v>
+        <v>0.7442326586184436</v>
       </c>
       <c r="G19">
-        <v>0.002459815279021504</v>
+        <v>0.0008033231994587907</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4010940010732611</v>
+        <v>1.260049918316128</v>
       </c>
       <c r="L19">
-        <v>0.3394422029416404</v>
+        <v>0.5464802649970011</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.616352772417542</v>
+        <v>2.196823485127396</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7770143198191022</v>
+        <v>1.769816107964232</v>
       </c>
       <c r="C20">
-        <v>0.2262965776077515</v>
+        <v>0.1150239649737301</v>
       </c>
       <c r="D20">
-        <v>0.05363905412877301</v>
+        <v>0.0821623852684823</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.023810597537377</v>
+        <v>0.7586998323643002</v>
       </c>
       <c r="G20">
-        <v>0.002458902111107553</v>
+        <v>0.0008017901607686903</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4156718208014638</v>
+        <v>1.308785390121528</v>
       </c>
       <c r="L20">
-        <v>0.3444427006171935</v>
+        <v>0.5672911292666498</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.614430457645511</v>
+        <v>2.22331691320295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8404685375355712</v>
+        <v>1.999489261568272</v>
       </c>
       <c r="C21">
-        <v>0.2245283861858418</v>
+        <v>0.1103945374028594</v>
       </c>
       <c r="D21">
-        <v>0.05594783067847686</v>
+        <v>0.08852130496234878</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.028708507441138</v>
+        <v>0.8094536528039384</v>
       </c>
       <c r="G21">
-        <v>0.00245593309080462</v>
+        <v>0.000796718190590443</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4646300464455635</v>
+        <v>1.473154560721383</v>
       </c>
       <c r="L21">
-        <v>0.36145270162028</v>
+        <v>0.6381802146915021</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.610263649778688</v>
+        <v>2.319186713271364</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8821076728160051</v>
+        <v>2.15079896128708</v>
       </c>
       <c r="C22">
-        <v>0.2234168758702602</v>
+        <v>0.1074578315577135</v>
       </c>
       <c r="D22">
-        <v>0.05744583523625835</v>
+        <v>0.09267522775374459</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.03241969205483</v>
+        <v>0.8443462006881788</v>
       </c>
       <c r="G22">
-        <v>0.002454066222270949</v>
+        <v>0.0007934592490227001</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4966087322476653</v>
+        <v>1.581136047830029</v>
       </c>
       <c r="L22">
-        <v>0.3727253415656691</v>
+        <v>0.6853100176221858</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.609249700567887</v>
+        <v>2.387322468276238</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8598689070355476</v>
+        <v>2.069921798279665</v>
       </c>
       <c r="C23">
-        <v>0.2240060799957035</v>
+        <v>0.1090169817055777</v>
       </c>
       <c r="D23">
-        <v>0.05664732892640245</v>
+        <v>0.09045826576442551</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.030392276337139</v>
+        <v>0.8255576641390974</v>
       </c>
       <c r="G23">
-        <v>0.002455055893886595</v>
+        <v>0.0007951936846756769</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4795429448531081</v>
+        <v>1.52344726308371</v>
       </c>
       <c r="L23">
-        <v>0.3666946924907535</v>
+        <v>0.6600775349987487</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.609634392177753</v>
+        <v>2.350431108729879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7759800786303401</v>
+        <v>1.766080385218658</v>
       </c>
       <c r="C24">
-        <v>0.2263262236591892</v>
+        <v>0.1151011114882614</v>
       </c>
       <c r="D24">
-        <v>0.05360113595992289</v>
+        <v>0.08205839281107785</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.023739153112885</v>
+        <v>0.7578975908948564</v>
       </c>
       <c r="G24">
-        <v>0.002458951884315774</v>
+        <v>0.0008018740442650163</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4148713501430734</v>
+        <v>1.306106943762444</v>
       </c>
       <c r="L24">
-        <v>0.3441673104572942</v>
+        <v>0.5661448491236172</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.614527402589601</v>
+        <v>2.221837136067535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6862350576245433</v>
+        <v>1.442560090359052</v>
       </c>
       <c r="C25">
-        <v>0.229018831036738</v>
+        <v>0.1220368526721636</v>
       </c>
       <c r="D25">
-        <v>0.05026928983853907</v>
+        <v>0.07297808351870572</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.018751609995078</v>
+        <v>0.6915352504322243</v>
       </c>
       <c r="G25">
-        <v>0.002463472127275014</v>
+        <v>0.0008093379934613799</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3450498170722369</v>
+        <v>1.073485531204568</v>
       </c>
       <c r="L25">
-        <v>0.3205369474227524</v>
+        <v>0.4677603419503384</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.627136639535479</v>
+        <v>2.104319416317821</v>
       </c>
     </row>
   </sheetData>
